--- a/Tests/baseline_short_sma_5_25_DY.xlsx
+++ b/Tests/baseline_short_sma_5_25_DY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Windows\Documents\bt_plat\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA16FCD9-474D-45F4-9AF5-A009F73D510E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0B1454-BDAE-437B-BEA3-7AFC06A017A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="22">
   <si>
     <t>Symbol</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Open Short</t>
+  </si>
+  <si>
+    <t>Open</t>
   </si>
 </sst>
 </file>
@@ -416,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="A1:L1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,7 +431,7 @@
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -480,8 +483,11 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -533,8 +539,12 @@
       <c r="Q2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2">
+        <f>ROUND(F2,2)</f>
+        <v>19.850000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -586,8 +596,12 @@
       <c r="Q3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <f t="shared" ref="R3:R48" si="0">ROUND(F3,2)</f>
+        <v>20.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -639,8 +653,12 @@
       <c r="Q4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>22.96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -692,8 +710,12 @@
       <c r="Q5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>23.39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -745,8 +767,12 @@
       <c r="Q6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>19.510000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -798,8 +824,12 @@
       <c r="Q7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>18.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -851,8 +881,12 @@
       <c r="Q8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>14.24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -904,8 +938,12 @@
       <c r="Q9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -957,8 +995,12 @@
       <c r="Q10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>21.62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1010,8 +1052,12 @@
       <c r="Q11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>19.07</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1063,8 +1109,12 @@
       <c r="Q12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>23.35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1116,8 +1166,12 @@
       <c r="Q13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>26.71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1169,8 +1223,12 @@
       <c r="Q14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>28.04</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1222,8 +1280,12 @@
       <c r="Q15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>27.74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1275,8 +1337,12 @@
       <c r="Q16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>32.590000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1328,8 +1394,12 @@
       <c r="Q17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <f t="shared" si="0"/>
+        <v>31.29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1381,8 +1451,12 @@
       <c r="Q18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18">
+        <f t="shared" si="0"/>
+        <v>32.81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1434,8 +1508,12 @@
       <c r="Q19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R19">
+        <f t="shared" si="0"/>
+        <v>32.24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1487,8 +1565,12 @@
       <c r="Q20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20">
+        <f t="shared" si="0"/>
+        <v>31.31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1540,8 +1622,12 @@
       <c r="Q21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R21">
+        <f t="shared" si="0"/>
+        <v>29.47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1679,12 @@
       <c r="Q22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22">
+        <f t="shared" si="0"/>
+        <v>29.68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1646,8 +1736,12 @@
       <c r="Q23" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R23">
+        <f t="shared" si="0"/>
+        <v>30.59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1699,8 +1793,12 @@
       <c r="Q24" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R24">
+        <f t="shared" si="0"/>
+        <v>35.450000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -1752,8 +1850,12 @@
       <c r="Q25" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R25">
+        <f t="shared" si="0"/>
+        <v>49.03</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -1805,8 +1907,12 @@
       <c r="Q26" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R26">
+        <f t="shared" si="0"/>
+        <v>56.58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -1858,8 +1964,12 @@
       <c r="Q27" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R27">
+        <f t="shared" si="0"/>
+        <v>67.77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -1911,8 +2021,12 @@
       <c r="Q28" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R28">
+        <f t="shared" si="0"/>
+        <v>71.14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -1964,8 +2078,12 @@
       <c r="Q29" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R29">
+        <f t="shared" si="0"/>
+        <v>78.290000000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -2017,8 +2135,12 @@
       <c r="Q30" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R30">
+        <f t="shared" si="0"/>
+        <v>78.63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -2070,8 +2192,12 @@
       <c r="Q31" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R31">
+        <f t="shared" si="0"/>
+        <v>58.37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -2123,8 +2249,12 @@
       <c r="Q32" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R32">
+        <f t="shared" si="0"/>
+        <v>83.73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -2176,8 +2306,12 @@
       <c r="Q33" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R33">
+        <f t="shared" si="0"/>
+        <v>85.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -2229,8 +2363,12 @@
       <c r="Q34" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R34">
+        <f t="shared" si="0"/>
+        <v>87.26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -2282,8 +2420,12 @@
       <c r="Q35" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R35">
+        <f t="shared" si="0"/>
+        <v>81.72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -2335,8 +2477,12 @@
       <c r="Q36" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R36">
+        <f t="shared" si="0"/>
+        <v>80.319999999999993</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -2388,8 +2534,12 @@
       <c r="Q37" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R37">
+        <f t="shared" si="0"/>
+        <v>81.73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -2441,8 +2591,12 @@
       <c r="Q38" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R38">
+        <f t="shared" si="0"/>
+        <v>94.53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -2494,8 +2648,12 @@
       <c r="Q39" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R39">
+        <f t="shared" si="0"/>
+        <v>91.55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -2547,8 +2705,12 @@
       <c r="Q40" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R40">
+        <f t="shared" si="0"/>
+        <v>90.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -2600,8 +2762,12 @@
       <c r="Q41" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R41">
+        <f t="shared" si="0"/>
+        <v>80.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -2653,8 +2819,12 @@
       <c r="Q42" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R42">
+        <f t="shared" si="0"/>
+        <v>113.71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -2706,8 +2876,12 @@
       <c r="Q43" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R43">
+        <f t="shared" si="0"/>
+        <v>104.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -2759,8 +2933,12 @@
       <c r="Q44" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R44">
+        <f t="shared" si="0"/>
+        <v>106.65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -2812,8 +2990,12 @@
       <c r="Q45" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R45">
+        <f t="shared" si="0"/>
+        <v>109.51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -2865,8 +3047,12 @@
       <c r="Q46" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R46">
+        <f t="shared" si="0"/>
+        <v>99.42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -2918,8 +3104,12 @@
       <c r="Q47" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R47">
+        <f t="shared" si="0"/>
+        <v>99.26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -2970,6 +3160,10 @@
       </c>
       <c r="Q48" t="s">
         <v>17</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="0"/>
+        <v>68.099999999999994</v>
       </c>
     </row>
     <row r="49" spans="3:16" x14ac:dyDescent="0.25">
@@ -2989,8 +3183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4959F562-266E-4941-9FFA-72E8A2696D88}">
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4014,7 +4208,7 @@
         <v>42144</v>
       </c>
       <c r="F26">
-        <v>56.580010000000001</v>
+        <v>56.58</v>
       </c>
       <c r="G26" s="2">
         <v>0.23050000000000001</v>
@@ -4882,7 +5076,7 @@
         <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C48" s="1">
         <v>43305</v>
@@ -4890,8 +5084,8 @@
       <c r="D48">
         <v>92.21</v>
       </c>
-      <c r="E48" s="1">
-        <v>43325</v>
+      <c r="E48" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F48">
         <v>68.099999999999994</v>
